--- a/EES Course/EES course prelim survey results 19-Oct-2016.xlsx
+++ b/EES Course/EES course prelim survey results 19-Oct-2016.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/EES Course/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20400" windowHeight="8010"/>
+    <workbookView xWindow="15720" yWindow="1400" windowWidth="28800" windowHeight="16300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -123,9 +133,6 @@
     <t>a. gripping and/or moving an ear drum graft</t>
   </si>
   <si>
-    <t>b. cutting the era drum graft into the appropriate shape</t>
-  </si>
-  <si>
     <t>d. keeping tissues in place or in tgension while cutting or dissecting</t>
   </si>
   <si>
@@ -247,13 +254,16 @@
   </si>
   <si>
     <t>hindering factors:  one handed surgery, bleeding control, lack of experience</t>
+  </si>
+  <si>
+    <t>b. cutting the ear drum graft into the appropriate shape</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,16 +315,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -355,13 +365,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,9 +461,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,6 +496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,27 +672,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="10"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="34.83203125" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
     <col min="9" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="18.75">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -691,8 +703,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -702,8 +714,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
       <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
@@ -711,8 +723,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
@@ -720,15 +732,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -738,18 +750,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1">
-      <c r="A8" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
@@ -757,8 +769,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
@@ -766,22 +778,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
       <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -791,8 +803,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
       <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
@@ -800,8 +812,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
@@ -809,8 +821,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
@@ -818,8 +830,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
       <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
@@ -827,8 +839,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -838,8 +850,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="30">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
       <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
@@ -847,8 +859,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
@@ -856,17 +868,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1">
-      <c r="A21" s="17" t="s">
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -876,8 +888,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
       <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
@@ -885,8 +897,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="30">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
@@ -894,8 +906,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="30">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
       <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
@@ -906,23 +918,23 @@
         <v>4</v>
       </c>
       <c r="E24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="G24" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -932,206 +944,206 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="30">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
       <c r="B27" s="9" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
       <c r="B28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="30">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
       <c r="B29" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
       <c r="B30" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="30">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
       <c r="B31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C31" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="45">
-      <c r="A32" s="16"/>
-      <c r="B32" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="C32" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
       <c r="B33" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1">
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="2" customFormat="1" ht="45">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" ht="30">
-      <c r="A36" s="17"/>
+    <row r="36" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
       <c r="B36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" ht="45">
-      <c r="A37" s="17"/>
+    <row r="37" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
       <c r="B37" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="2" customFormat="1">
-      <c r="A38" s="17"/>
+    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
       <c r="B38" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="2" customFormat="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="1" customFormat="1">
-      <c r="A40" s="16" t="s">
+    </row>
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
       <c r="B41" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
       <c r="B42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="C43" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1">
-      <c r="A44" s="16"/>
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
       <c r="B44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="8">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="8">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="1" customFormat="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" ht="30">
-      <c r="A46" s="16"/>
-      <c r="B46" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="C46" s="8"/>
       <c r="N46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="2" customFormat="1">
-      <c r="A47" s="17" t="s">
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="2">
@@ -1173,10 +1185,10 @@
         <v>0.4333333333333334</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="2" customFormat="1">
-      <c r="A48" s="17"/>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
       <c r="B48" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="2">
@@ -1218,10 +1230,10 @@
         <v>0.40688518719112343</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="2" customFormat="1">
-      <c r="A49" s="17"/>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
       <c r="B49" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="2">
@@ -1263,10 +1275,10 @@
         <v>0.39440531887330771</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="2" customFormat="1" ht="30">
-      <c r="A50" s="17"/>
+    <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
       <c r="B50" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
@@ -1310,10 +1322,10 @@
         <v>0.39581140290126382</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="2" customFormat="1">
-      <c r="A51" s="17"/>
+    <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
       <c r="B51" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="7">
         <v>2</v>
@@ -1357,39 +1369,39 @@
         <v>0.48189440982669873</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="D53" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="D54" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="D55" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="D56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1410,24 +1422,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
